--- a/data/trans_bre/P20-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20-Edad-trans_bre.xlsx
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.52889042854432</v>
+        <v>1.555810463008282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.009799771645117</v>
+        <v>1.931873567899767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.516608608086201</v>
+        <v>2.484909358774595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.877934967216404</v>
+        <v>3.47131261671412</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.328248403407631</v>
+        <v>0.3515558628730412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3751954153159037</v>
+        <v>0.3636007291956398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.532461335242142</v>
+        <v>0.5974183766658344</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.975414565965303</v>
+        <v>6.952103568932529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.35764694263939</v>
+        <v>8.487765024644171</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.0932017013606</v>
+        <v>9.023120355842767</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.73731707163653</v>
+        <v>11.87330120305912</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.817414894745762</v>
+        <v>5.453545368711924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.722321569050681</v>
+        <v>3.864646446634131</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.887458686712585</v>
+        <v>4.645130392637697</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -733,7 +733,7 @@
         <v>8.692087455977298</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.014681782313717</v>
+        <v>5.014681782313716</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.737628115301856</v>
@@ -745,7 +745,7 @@
         <v>3.860881856165819</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.409000119083152</v>
+        <v>1.409000119083151</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.693849805545931</v>
+        <v>5.74449190179841</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.363902124981248</v>
+        <v>6.731241492129543</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.63410071020134</v>
+        <v>5.765490361910574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.243202852748102</v>
+        <v>0.7449759889583907</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.303284419523764</v>
+        <v>1.337650208249791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.093867853664852</v>
+        <v>1.196899608672172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.630318683918583</v>
+        <v>1.637625339769401</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01973670636179168</v>
+        <v>-0.03660789097607232</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.707695089712</v>
+        <v>11.63778064004375</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.31541836794326</v>
+        <v>13.44732140736221</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.6689630539994</v>
+        <v>11.59915999143458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.270734411879209</v>
+        <v>8.292407653866738</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.971856587759882</v>
+        <v>5.006565165215233</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.900563543116533</v>
+        <v>4.059406641385743</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>9.102725501898261</v>
+        <v>9.004339287172552</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.799923860555067</v>
+        <v>3.765424784976911</v>
       </c>
     </row>
     <row r="10">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04435749959569758</v>
+        <v>0.07257805705896481</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.0899619161541273</v>
+        <v>-0.3585482349743267</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.814711927708706</v>
+        <v>1.675391453786846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3357670394566294</v>
+        <v>0.1911994574698236</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.002813929072816094</v>
+        <v>0.004674069335097491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01370847932596313</v>
+        <v>-0.04943401023372663</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3500109377462517</v>
+        <v>0.2754012794484856</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04242553230645075</v>
+        <v>0.01220306034964342</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.381292296533705</v>
+        <v>4.169509482489823</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.580118034098565</v>
+        <v>5.264167803544805</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.971061990708328</v>
+        <v>6.736898272661961</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.104203549454015</v>
+        <v>4.901788463780668</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.412703481001873</v>
+        <v>2.454714547245844</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.432312393356309</v>
+        <v>1.286169687284655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.718868699652193</v>
+        <v>2.694591202353604</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.953290617969173</v>
+        <v>1.861569362245739</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.033655486255335</v>
+        <v>-2.172631815767303</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01191161950882345</v>
+        <v>0.0732172469871817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8926197136870897</v>
+        <v>-0.8585964786555753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.283989760510317</v>
+        <v>-4.210938926840749</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3654047648476432</v>
+        <v>-0.3847248521475111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01906633725772273</v>
+        <v>-0.00934015829593381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2141325481884295</v>
+        <v>-0.2142352726124903</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5393170807570343</v>
+        <v>-0.5229230895153913</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.049591693548899</v>
+        <v>3.189390317942188</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.195465018927911</v>
+        <v>6.018539616412911</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.910755951237024</v>
+        <v>3.80236768950317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6740077647675295</v>
+        <v>0.3334939454364848</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9971420296885597</v>
+        <v>1.027145361774872</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.437823857463572</v>
+        <v>1.514634817797865</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.482707062592463</v>
+        <v>1.525724440539082</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1559467324188875</v>
+        <v>0.09371671692606848</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>-1.989581543123969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.737675606304165</v>
+        <v>-2.737675606304162</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2210459190475341</v>
@@ -1045,7 +1045,7 @@
         <v>-0.2814197602568748</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3338775911170579</v>
+        <v>-0.3338775911170577</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.923462407849529</v>
+        <v>-2.137436915246964</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.220002284915989</v>
+        <v>-3.062394300760178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.542959287370046</v>
+        <v>-5.480317131583026</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.122252958526539</v>
+        <v>-5.516257199643622</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3238217732423596</v>
+        <v>-0.3517813721043184</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3942018871084088</v>
+        <v>-0.3918242142247138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6055922113377874</v>
+        <v>-0.6034384183042891</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5322480602743159</v>
+        <v>-0.5456099821674995</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.167945016347272</v>
+        <v>4.114633797340017</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.629558215517932</v>
+        <v>3.765765103449379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9493241798527674</v>
+        <v>0.6735730415556228</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.1759816977761233</v>
+        <v>-0.1955658026230571</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.220113696236572</v>
+        <v>1.188499624107371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.753953900580732</v>
+        <v>0.7923762163251042</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2067971636486514</v>
+        <v>0.1493270895083852</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.02502620802090427</v>
+        <v>-0.011294519535018</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1133,7 @@
         <v>-3.221897014297054</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-3.461782087021938</v>
+        <v>-3.461782087021937</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09672830752861221</v>
@@ -1145,7 +1145,7 @@
         <v>-0.2939843590196443</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3723249097532247</v>
+        <v>-0.3723249097532246</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.272296559878732</v>
+        <v>-3.735363849824022</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.648409110406766</v>
+        <v>-5.211596779729703</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.655885834099162</v>
+        <v>-8.125410281815602</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.341348246175113</v>
+        <v>-6.418932730417846</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3610539909842532</v>
+        <v>-0.3815603461059187</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3766485387674478</v>
+        <v>-0.4251735825075612</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5673410638300446</v>
+        <v>-0.5780227272119761</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5758242426618945</v>
+        <v>-0.5655835690388907</v>
       </c>
     </row>
     <row r="21">
@@ -1188,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.818777992386983</v>
+        <v>4.675210955069695</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.578938088818439</v>
+        <v>4.323452546420711</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9216255806230342</v>
+        <v>0.8205000019958186</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.6917229925030092</v>
+        <v>-0.4543458471538299</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8235116527880071</v>
+        <v>0.8227737943236612</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6822024266709077</v>
+        <v>0.6179985533567216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1654535633771226</v>
+        <v>0.1121068403148392</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.0856903385135967</v>
+        <v>-0.04668424601088305</v>
       </c>
     </row>
     <row r="22">
@@ -1245,7 +1245,7 @@
         <v>0.1957089646245007</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.09956626320193615</v>
+        <v>-0.09956626320193616</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.118296562241077</v>
+        <v>-4.836415773054942</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.098482730588282</v>
+        <v>-9.179081123748388</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.759072451099752</v>
+        <v>-3.304864806403146</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.728766850102076</v>
+        <v>-4.855023300214778</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4119058492686684</v>
+        <v>-0.3935143952496482</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4986258698423601</v>
+        <v>-0.4957563698504475</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2566669189525366</v>
+        <v>-0.2953137515096937</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3691453979377484</v>
+        <v>-0.3705409139413232</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.489669537846675</v>
+        <v>5.380966338809411</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.180221396119666</v>
+        <v>2.12762546663492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.427290924320475</v>
+        <v>6.329702773689607</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.188831486103512</v>
+        <v>1.944506570773429</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8732788757455601</v>
+        <v>0.8090293352912002</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.210470745110932</v>
+        <v>0.1995554599981078</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.006632119861382</v>
+        <v>1.06435457320197</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2558959170584004</v>
+        <v>0.2239582423465647</v>
       </c>
     </row>
     <row r="25">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.983126965917824</v>
+        <v>2.227881426608934</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.199107104687716</v>
+        <v>2.055173582542575</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.735791737262187</v>
+        <v>1.755822430844004</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.3881148618268761</v>
+        <v>-0.415760886491467</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4218638191572202</v>
+        <v>0.4768149060760889</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3316934314949568</v>
+        <v>0.3010210038434271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3242079385881628</v>
+        <v>0.3213538115475555</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06050567122452363</v>
+        <v>-0.06419768240920039</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.265884818084271</v>
+        <v>4.435352910024273</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.81303009525502</v>
+        <v>4.78805875084992</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.193801161663243</v>
+        <v>4.142630302662547</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.890042234232261</v>
+        <v>1.910414417974372</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.173967434878106</v>
+        <v>1.214121883545566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8810778316629703</v>
+        <v>0.8788365572312932</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.002229015490472</v>
+        <v>0.9493041744506555</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3695013053898449</v>
+        <v>0.3667503308151954</v>
       </c>
     </row>
     <row r="28">
